--- a/MarketComposition.xlsx
+++ b/MarketComposition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\Mean-CVaR_Portfolio_with_Mixture-Copulas\data_directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\BR-Fama-French-Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB16010-3CE5-424D-BAA2-C748B87B8FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94EF994-75EC-4BD6-90F0-E1AE6B522EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FBF3351-9DD2-4860-8026-69584A254B29}"/>
   </bookViews>
